--- a/simulations/tests/swap_cats_tests.xlsx
+++ b/simulations/tests/swap_cats_tests.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdeng/Workspace/mislabeling/simulations/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53151B32-5363-F041-BEBD-AA4D1E193CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC60A3-EE75-B648-A5C7-65D313CE08EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16280" activeTab="1" xr2:uid="{B7B7C880-3F7A-3A48-A4C4-6F3CF7055472}"/>
+    <workbookView xWindow="-20520" yWindow="-11180" windowWidth="27640" windowHeight="16280" activeTab="2" xr2:uid="{B7B7C880-3F7A-3A48-A4C4-6F3CF7055472}"/>
   </bookViews>
   <sheets>
     <sheet name="Maj_Edge_Case" sheetId="1" r:id="rId1"/>
     <sheet name="2-2C_Edge_Case" sheetId="2" r:id="rId2"/>
+    <sheet name="2C-cats-2G" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -69,6 +70,39 @@
   </si>
   <si>
     <t>B_RNA3</t>
+  </si>
+  <si>
+    <t>A_ATAC1</t>
+  </si>
+  <si>
+    <t>A_RNA1</t>
+  </si>
+  <si>
+    <t>B_WGS1</t>
+  </si>
+  <si>
+    <t>B_ATAC1</t>
+  </si>
+  <si>
+    <t>C_WGS1</t>
+  </si>
+  <si>
+    <t>C_ATAC1</t>
+  </si>
+  <si>
+    <t>C_RNA1</t>
+  </si>
+  <si>
+    <t>C_RNA2</t>
+  </si>
+  <si>
+    <t>C_RNA3</t>
+  </si>
+  <si>
+    <t>ATAC</t>
+  </si>
+  <si>
+    <t>ATACH</t>
   </si>
 </sst>
 </file>
@@ -501,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF41085-56BC-5040-B6E6-93CA3450A571}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,4 +584,147 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229BCC01-5D73-AA4E-BF23-93027792E023}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simulations/tests/swap_cats_tests.xlsx
+++ b/simulations/tests/swap_cats_tests.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdeng/Workspace/mislabeling/simulations/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC60A3-EE75-B648-A5C7-65D313CE08EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD58F00-FB44-484F-A34A-97109333E1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-11180" windowWidth="27640" windowHeight="16280" activeTab="2" xr2:uid="{B7B7C880-3F7A-3A48-A4C4-6F3CF7055472}"/>
+    <workbookView xWindow="5020" yWindow="6600" windowWidth="14400" windowHeight="9660" activeTab="3" xr2:uid="{B7B7C880-3F7A-3A48-A4C4-6F3CF7055472}"/>
   </bookViews>
   <sheets>
     <sheet name="Maj_Edge_Case" sheetId="1" r:id="rId1"/>
     <sheet name="2-2C_Edge_Case" sheetId="2" r:id="rId2"/>
     <sheet name="2C-cats-2G" sheetId="5" r:id="rId3"/>
+    <sheet name="2-2C" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -103,6 +104,33 @@
   </si>
   <si>
     <t>ATACH</t>
+  </si>
+  <si>
+    <t>SwapCat1</t>
+  </si>
+  <si>
+    <t>Ctrl044_Sample1</t>
+  </si>
+  <si>
+    <t>SwapCat_Group2</t>
+  </si>
+  <si>
+    <t>Ctrl096_Sample1</t>
+  </si>
+  <si>
+    <t>SwapCat_Group1</t>
+  </si>
+  <si>
+    <t>Ctrl096_Sample2</t>
+  </si>
+  <si>
+    <t>Case134_Sample1</t>
+  </si>
+  <si>
+    <t>Case134_Sample2</t>
+  </si>
+  <si>
+    <t>Case134_Sample3</t>
   </si>
 </sst>
 </file>
@@ -590,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229BCC01-5D73-AA4E-BF23-93027792E023}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -727,4 +755,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884587F7-87FA-A54F-9163-EDC6C519D686}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simulations/tests/swap_cats_tests.xlsx
+++ b/simulations/tests/swap_cats_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdeng/Workspace/mislabeling/simulations/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD58F00-FB44-484F-A34A-97109333E1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14AAAD-4CC1-8B4B-B89A-E5B7463CF2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="6600" windowWidth="14400" windowHeight="9660" activeTab="3" xr2:uid="{B7B7C880-3F7A-3A48-A4C4-6F3CF7055472}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="3" xr2:uid="{B7B7C880-3F7A-3A48-A4C4-6F3CF7055472}"/>
   </bookViews>
   <sheets>
     <sheet name="Maj_Edge_Case" sheetId="1" r:id="rId1"/>
@@ -761,14 +761,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884587F7-87FA-A54F-9163-EDC6C519D686}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">

--- a/simulations/tests/swap_cats_tests.xlsx
+++ b/simulations/tests/swap_cats_tests.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesdeng/Workspace/mislabeling/simulations/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14AAAD-4CC1-8B4B-B89A-E5B7463CF2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DCFAA2-6E50-A94C-A566-8899FC677D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="3" xr2:uid="{B7B7C880-3F7A-3A48-A4C4-6F3CF7055472}"/>
+    <workbookView xWindow="7280" yWindow="2840" windowWidth="29400" windowHeight="16680" activeTab="4" xr2:uid="{B7B7C880-3F7A-3A48-A4C4-6F3CF7055472}"/>
   </bookViews>
   <sheets>
     <sheet name="Maj_Edge_Case" sheetId="1" r:id="rId1"/>
     <sheet name="2-2C_Edge_Case" sheetId="2" r:id="rId2"/>
     <sheet name="2C-cats-2G" sheetId="5" r:id="rId3"/>
     <sheet name="2-2C" sheetId="6" r:id="rId4"/>
+    <sheet name="3C-D" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -131,6 +132,42 @@
   </si>
   <si>
     <t>Case134_Sample3</t>
+  </si>
+  <si>
+    <t>Case0127_Sample1</t>
+  </si>
+  <si>
+    <t>Case0127_Sample2</t>
+  </si>
+  <si>
+    <t>Case0127_Sample3</t>
+  </si>
+  <si>
+    <t>Ctrl1270_Sample1</t>
+  </si>
+  <si>
+    <t>Ctrl1270_Sample2</t>
+  </si>
+  <si>
+    <t>Ctrl0305_Sample1</t>
+  </si>
+  <si>
+    <t>Ctrl0305_Sample3</t>
+  </si>
+  <si>
+    <t>Ctrl0305_Sample4</t>
+  </si>
+  <si>
+    <t>Ctrl0305_Sample5</t>
+  </si>
+  <si>
+    <t>Cat2</t>
+  </si>
+  <si>
+    <t>Cat3</t>
+  </si>
+  <si>
+    <t>SwapCat_ID</t>
   </si>
 </sst>
 </file>
@@ -761,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884587F7-87FA-A54F-9163-EDC6C519D686}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,4 +868,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7365255E-97B6-A346-B1CA-EEA40F57EDEC}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>